--- a/results/S32.xlsx
+++ b/results/S32.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3064,6 +3064,606 @@
       </c>
       <c r="P52" t="n">
         <v>-18.5550458751252</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>48</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>1.172122478485107</v>
+      </c>
+      <c r="E53" t="n">
+        <v>70.38532308647385</v>
+      </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>84.65614545788821</v>
+      </c>
+      <c r="H53" t="n">
+        <v>33</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-13.65268929941376</v>
+      </c>
+      <c r="J53" t="n">
+        <v>6</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>40</v>
+      </c>
+      <c r="M53" t="n">
+        <v>71.70309899561413</v>
+      </c>
+      <c r="N53" t="n">
+        <v>14.27082237141437</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.317775909140281</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-12.95304646227409</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>116</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>2.14080286026001</v>
+      </c>
+      <c r="E54" t="n">
+        <v>28.49539233992243</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>44.0705789265018</v>
+      </c>
+      <c r="H54" t="n">
+        <v>40</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-5.369143571519596</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3</v>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>18</v>
+      </c>
+      <c r="M54" t="n">
+        <v>10.79237988154374</v>
+      </c>
+      <c r="N54" t="n">
+        <v>15.57518658657936</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-17.70301245837869</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-33.27819904495805</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>121</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>2.234192848205566</v>
+      </c>
+      <c r="E55" t="n">
+        <v>27.1944567876414</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>38.04838185427421</v>
+      </c>
+      <c r="H55" t="n">
+        <v>35</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1.607715562792441</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>13</v>
+      </c>
+      <c r="M55" t="n">
+        <v>6.161222356396705</v>
+      </c>
+      <c r="N55" t="n">
+        <v>10.85392506663282</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-21.03323443124469</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-31.88715949787751</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>156</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>3.038798809051514</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-7.808274292256352</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>9.333800452459423</v>
+      </c>
+      <c r="H56" t="n">
+        <v>20</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-23.36416610507271</v>
+      </c>
+      <c r="J56" t="n">
+        <v>30</v>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>5</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-9.476302731144424</v>
+      </c>
+      <c r="N56" t="n">
+        <v>17.14207474471577</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-1.668028438888071</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-18.81010318360385</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>199</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>3.032327890396118</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-47.68670924766708</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.887159828418477</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-56.20282492283049</v>
+      </c>
+      <c r="J57" t="n">
+        <v>52</v>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>12</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-14.96061840601549</v>
+      </c>
+      <c r="N57" t="n">
+        <v>50.57386907608556</v>
+      </c>
+      <c r="O57" t="n">
+        <v>32.7260908416516</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-17.84777823443396</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>238</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>2.326508045196533</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-8.859855861018589</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.083350369467065</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-44.14888023906098</v>
+      </c>
+      <c r="J58" t="n">
+        <v>15</v>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>7</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-8.333328209375573</v>
+      </c>
+      <c r="N58" t="n">
+        <v>10.94320623048565</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.5265276516430166</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-10.41667857884264</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>287</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>1.914120078086853</v>
+      </c>
+      <c r="E59" t="n">
+        <v>55.75096736255654</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>80.60011509413567</v>
+      </c>
+      <c r="H59" t="n">
+        <v>47</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-4.310340840949636</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>35</v>
+      </c>
+      <c r="M59" t="n">
+        <v>27.99399731067262</v>
+      </c>
+      <c r="N59" t="n">
+        <v>24.84914773157913</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-27.75697005188393</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-52.60611778346306</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>296</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>2.285393238067627</v>
+      </c>
+      <c r="E60" t="n">
+        <v>52.00406149452399</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>59.06539543652482</v>
+      </c>
+      <c r="H60" t="n">
+        <v>51</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-10.83029672136926</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>26</v>
+      </c>
+      <c r="M60" t="n">
+        <v>7.200754796187711</v>
+      </c>
+      <c r="N60" t="n">
+        <v>7.061333942000829</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-44.80330669833628</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-51.86464064033711</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>345</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>3.405941963195801</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8.542579651782543</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>37.75259595576605</v>
+      </c>
+      <c r="H61" t="n">
+        <v>14</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-13.10597571572787</v>
+      </c>
+      <c r="J61" t="n">
+        <v>29</v>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>24</v>
+      </c>
+      <c r="M61" t="n">
+        <v>6.317394996736564</v>
+      </c>
+      <c r="N61" t="n">
+        <v>29.21001630398351</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-2.225184655045979</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-31.43520095902949</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>391</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>3.613717317581177</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-16.31245147053555</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>24.55242979699103</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-19.21643925923511</v>
+      </c>
+      <c r="J62" t="n">
+        <v>52</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>27</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2.165747654108203</v>
+      </c>
+      <c r="N62" t="n">
+        <v>40.86488126752658</v>
+      </c>
+      <c r="O62" t="n">
+        <v>18.47819912464375</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-22.38668214288283</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>469</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>3.594549655914306</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-18.88226509975634</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6.914891177257577</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-32.31053581011737</v>
+      </c>
+      <c r="J63" t="n">
+        <v>47</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>9</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-9.042548887238347</v>
+      </c>
+      <c r="N63" t="n">
+        <v>25.79715627701392</v>
+      </c>
+      <c r="O63" t="n">
+        <v>9.839716212517992</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-15.95744006449592</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>494</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>3.685718536376953</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-16.97684148753505</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3.815789019632208</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-33.9848830529685</v>
+      </c>
+      <c r="J64" t="n">
+        <v>22</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>5</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-10.52631136351169</v>
+      </c>
+      <c r="N64" t="n">
+        <v>20.79263050716726</v>
+      </c>
+      <c r="O64" t="n">
+        <v>6.450530124023354</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-14.3421003831439</v>
       </c>
     </row>
   </sheetData>
@@ -3077,7 +3677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3290,40 +3890,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.48719860534432</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3671526797630951</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36.17602116891146</v>
+      </c>
+      <c r="G4" t="n">
+        <v>32.81505278077638</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-21.50865759175481</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22.32785417543207</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18.41666666666667</v>
+      </c>
+      <c r="L4" t="n">
+        <v>50</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-3.820908072513136</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>58.4</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>18.4249258216974</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>7.94650568486141</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>41.6839129158335</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>40.5759864802418</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-19.89830340458747</v>
       </c>
     </row>
